--- a/groups/23-24-Univers/results.xlsx
+++ b/groups/23-24-Univers/results.xlsx
@@ -6412,16 +6412,16 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="C3">
-        <v>3704</v>
+        <v>3706</v>
       </c>
       <c r="D3">
-        <v>6588</v>
+        <v>6590</v>
       </c>
       <c r="E3">
-        <v>11716</v>
+        <v>11719</v>
       </c>
     </row>
     <row r="4" spans="1:5">

--- a/groups/23-24-Univers/results.xlsx
+++ b/groups/23-24-Univers/results.xlsx
@@ -6412,16 +6412,16 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="C3">
-        <v>3706</v>
+        <v>3708</v>
       </c>
       <c r="D3">
-        <v>6590</v>
+        <v>6600</v>
       </c>
       <c r="E3">
-        <v>11719</v>
+        <v>11732</v>
       </c>
     </row>
     <row r="4" spans="1:5">

--- a/groups/23-24-Univers/results.xlsx
+++ b/groups/23-24-Univers/results.xlsx
@@ -6415,13 +6415,13 @@
         <v>1937</v>
       </c>
       <c r="C3">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="D3">
-        <v>6600</v>
+        <v>6605</v>
       </c>
       <c r="E3">
-        <v>11732</v>
+        <v>11738</v>
       </c>
     </row>
     <row r="4" spans="1:5">

--- a/groups/23-24-Univers/results.xlsx
+++ b/groups/23-24-Univers/results.xlsx
@@ -6418,7 +6418,7 @@
         <v>3709</v>
       </c>
       <c r="D3">
-        <v>6605</v>
+        <v>6606</v>
       </c>
       <c r="E3">
         <v>11738</v>

--- a/groups/23-24-Univers/results.xlsx
+++ b/groups/23-24-Univers/results.xlsx
@@ -6418,10 +6418,10 @@
         <v>3709</v>
       </c>
       <c r="D3">
-        <v>6606</v>
+        <v>6607</v>
       </c>
       <c r="E3">
-        <v>11738</v>
+        <v>11740</v>
       </c>
     </row>
     <row r="4" spans="1:5">

--- a/groups/23-24-Univers/results.xlsx
+++ b/groups/23-24-Univers/results.xlsx
@@ -6412,16 +6412,16 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="C3">
-        <v>3709</v>
+        <v>3710</v>
       </c>
       <c r="D3">
-        <v>6607</v>
+        <v>6608</v>
       </c>
       <c r="E3">
-        <v>11740</v>
+        <v>11741</v>
       </c>
     </row>
     <row r="4" spans="1:5">

--- a/groups/23-24-Univers/results.xlsx
+++ b/groups/23-24-Univers/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="1993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2939" uniqueCount="1993">
   <si>
     <t>№</t>
   </si>
@@ -916,520 +916,520 @@
     <t>245</t>
   </si>
   <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>2+, 9-</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>2+, 4-</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>1+, 22-</t>
+  </si>
+  <si>
+    <t>1+, 11-</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>1+, 13-</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
     <t>7-</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>2+, 9-</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>2+, 4-</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>283</t>
-  </si>
-  <si>
-    <t>1+, 22-</t>
-  </si>
-  <si>
-    <t>1+, 11-</t>
-  </si>
-  <si>
-    <t>284</t>
-  </si>
-  <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>286</t>
-  </si>
-  <si>
-    <t>287</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>293</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>297</t>
-  </si>
-  <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>324</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>327</t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>329</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>337</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>341</t>
-  </si>
-  <si>
-    <t>342</t>
-  </si>
-  <si>
-    <t>343</t>
-  </si>
-  <si>
-    <t>344</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>346</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>348</t>
-  </si>
-  <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>352</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>1+, 13-</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>361</t>
-  </si>
-  <si>
-    <t>362</t>
-  </si>
-  <si>
-    <t>363</t>
-  </si>
-  <si>
-    <t>364</t>
-  </si>
-  <si>
-    <t>365</t>
-  </si>
-  <si>
-    <t>366</t>
-  </si>
-  <si>
-    <t>367</t>
-  </si>
-  <si>
-    <t>368</t>
-  </si>
-  <si>
-    <t>369</t>
-  </si>
-  <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>371</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>373</t>
-  </si>
-  <si>
-    <t>374</t>
-  </si>
-  <si>
-    <t>375</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>377</t>
-  </si>
-  <si>
-    <t>378</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>381</t>
-  </si>
-  <si>
-    <t>382</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>385</t>
-  </si>
-  <si>
-    <t>386</t>
-  </si>
-  <si>
-    <t>387</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>389</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>391</t>
-  </si>
-  <si>
-    <t>392</t>
-  </si>
-  <si>
-    <t>393</t>
-  </si>
-  <si>
-    <t>394</t>
-  </si>
-  <si>
-    <t>395</t>
-  </si>
-  <si>
-    <t>396</t>
-  </si>
-  <si>
-    <t>397</t>
-  </si>
-  <si>
-    <t>398</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>402</t>
-  </si>
-  <si>
-    <t>403</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>405</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
-    <t>407</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>409</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>411</t>
   </si>
   <si>
     <t>412</t>
@@ -6412,16 +6412,16 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1938</v>
+        <v>1899</v>
       </c>
       <c r="C3">
-        <v>3710</v>
+        <v>3669</v>
       </c>
       <c r="D3">
-        <v>6608</v>
+        <v>6610</v>
       </c>
       <c r="E3">
-        <v>11741</v>
+        <v>11744</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6429,10 +6429,10 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>6677</v>
+        <v>6754</v>
       </c>
       <c r="C4">
-        <v>4361</v>
+        <v>4403</v>
       </c>
       <c r="D4">
         <v>2874</v>
@@ -6446,10 +6446,10 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="C5">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D5">
         <v>389</v>
@@ -6463,10 +6463,10 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C6">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D6">
         <v>146</v>
@@ -6483,7 +6483,7 @@
         <v>39</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -6497,10 +6497,10 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D8">
         <v>163</v>
@@ -6517,7 +6517,7 @@
         <v>80</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -8665,33 +8665,36 @@
       <c r="A254" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C254" s="4" t="s">
-        <v>299</v>
+      <c r="B254" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>30</v>
@@ -8699,22 +8702,22 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>19</v>
@@ -8725,47 +8728,47 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>24</v>
@@ -8779,7 +8782,7 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>30</v>
@@ -8793,7 +8796,7 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>19</v>
@@ -8801,12 +8804,12 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E276" s="4" t="s">
         <v>51</v>
@@ -8814,17 +8817,17 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>86</v>
@@ -8835,7 +8838,7 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>22</v>
@@ -8846,7 +8849,7 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>30</v>
@@ -8854,12 +8857,12 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>19</v>
@@ -8867,12 +8870,12 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>24</v>
@@ -8883,7 +8886,7 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>86</v>
@@ -8891,52 +8894,52 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E287" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E287" s="3" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E288" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="E288" s="3" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B292" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="D292" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>19</v>
@@ -8950,7 +8953,7 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>24</v>
@@ -8958,7 +8961,7 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>24</v>
@@ -8966,7 +8969,7 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>19</v>
@@ -8974,22 +8977,22 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>31</v>
@@ -8997,12 +9000,12 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>31</v>
@@ -9013,7 +9016,7 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>19</v>
@@ -9024,7 +9027,7 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>115</v>
@@ -9032,7 +9035,7 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>19</v>
@@ -9043,7 +9046,7 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>24</v>
@@ -9057,62 +9060,62 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>19</v>
@@ -9120,12 +9123,12 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>19</v>
@@ -9133,7 +9136,7 @@
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>19</v>
@@ -9150,7 +9153,7 @@
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>19</v>
@@ -9158,7 +9161,7 @@
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B323" s="4" t="s">
         <v>76</v>
@@ -9166,7 +9169,7 @@
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>86</v>
@@ -9174,32 +9177,32 @@
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>39</v>
@@ -9207,7 +9210,7 @@
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>22</v>
@@ -9218,7 +9221,7 @@
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>19</v>
@@ -9226,13 +9229,13 @@
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>19</v>
@@ -9240,12 +9243,12 @@
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>86</v>
@@ -9256,7 +9259,7 @@
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>19</v>
@@ -9270,7 +9273,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>19</v>
@@ -9278,7 +9281,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>51</v>
@@ -9286,12 +9289,12 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>22</v>
@@ -9305,12 +9308,12 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>30</v>
@@ -9318,17 +9321,17 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>19</v>
@@ -9342,12 +9345,12 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>22</v>
@@ -9355,12 +9358,12 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>19</v>
@@ -9371,7 +9374,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>19</v>
@@ -9379,12 +9382,12 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B352" s="4" t="s">
         <v>51</v>
@@ -9392,22 +9395,22 @@
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>30</v>
@@ -9418,12 +9421,12 @@
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>19</v>
@@ -9434,7 +9437,7 @@
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>19</v>
@@ -9442,40 +9445,40 @@
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B363" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="B363" s="3" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>30</v>
@@ -9492,32 +9495,32 @@
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B372" s="4" t="s">
         <v>51</v>
@@ -9525,22 +9528,22 @@
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B376" s="4" t="s">
         <v>51</v>
@@ -9551,17 +9554,17 @@
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>22</v>
@@ -9572,62 +9575,62 @@
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>24</v>
@@ -9638,7 +9641,7 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>20</v>
@@ -9646,12 +9649,12 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>19</v>
@@ -9659,12 +9662,12 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>19</v>
@@ -9675,7 +9678,7 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>86</v>
@@ -9683,32 +9686,32 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>39</v>
@@ -9716,7 +9719,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>19</v>
@@ -9727,17 +9730,17 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>19</v>
@@ -9745,70 +9748,70 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B420" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="B420" s="4" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -10572,7 +10575,7 @@
         <v>590</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C538" s="3" t="s">
         <v>22</v>
@@ -10730,7 +10733,7 @@
         <v>609</v>
       </c>
       <c r="D557" s="4" t="s">
-        <v>299</v>
+        <v>470</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -11678,7 +11681,7 @@
         <v>754</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C701" s="3" t="s">
         <v>24</v>
@@ -12919,6 +12922,9 @@
       <c r="A878" s="2" t="s">
         <v>933</v>
       </c>
+      <c r="B878" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C878" s="3" t="s">
         <v>30</v>
       </c>
@@ -13690,7 +13696,7 @@
         <v>1036</v>
       </c>
       <c r="B978" s="4" t="s">
-        <v>299</v>
+        <v>470</v>
       </c>
       <c r="C978" s="4" t="s">
         <v>115</v>
